--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162411</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7982</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3549</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>096001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成标普500等权重指数（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.68</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.37</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1718,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.24</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1669,13 +1756,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1726</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.68</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1726</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.37</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.24</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2103,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9121</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.68</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.37</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2212,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.24</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2250,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,205 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -665,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -716,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001481</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)美元</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2089</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -754,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162411</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝油气(QDII)人民币A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>43.02</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2089</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -792,32 +732,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6126</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -830,32 +770,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6126</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -868,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,74 +846,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.77</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2355</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007844</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝油气(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1228</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +910,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1038,32 +940,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4902</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1076,32 +978,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4902</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1114,32 +1016,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1940</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1152,32 +1054,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1940</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1190,6 +1092,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1580,214 +1690,6 @@
       </c>
       <c r="H10" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3971</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2292</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1559</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1559</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1822,7 +1724,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1852,32 +1754,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>0.4902</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1890,32 +1792,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>0.4902</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1928,32 +1830,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.1940</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1966,32 +1868,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.1940</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2009,7 +1911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2030,7 +1932,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2060,36 +1962,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>001481</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>华宝油气(QDII)美元</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>43.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>1.2089</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2098,36 +2000,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162411</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>华宝油气(QDII)人民币A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>43.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>1.2089</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2136,32 +2038,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.6126</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2174,32 +2076,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.6126</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2212,36 +2114,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2250,36 +2152,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.2355</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007844</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝油气(QDII)人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2293,144 +2233,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.2</v>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.1</v>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.19</v>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>5.2</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>2.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.37</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.24</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.19</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>0.9924</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>0.9924</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.5008</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,32 +825,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>-0.9932</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,32 +957,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -978,32 +995,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1016,32 +1033,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1054,36 +1071,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1148,32 +1241,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3971</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1186,32 +1279,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1234,22 +1327,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1559</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1272,22 +1365,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1559</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1300,6 +1393,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1697,7 +1998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2227,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/EOG-EOG资源.xlsx
+++ b/数据整理/stocks/其他/EOG-EOG资源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>5.2</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9399999999999999</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.68</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>4.24</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,22 +908,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9924</t>
+          <t>0.9834</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +946,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>11.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9924</t>
+          <t>0.9834</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -759,22 +984,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5008</t>
+          <t>0.4826</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,111 +1012,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>-11.33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>90.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0501</t>
+          <t>-0.9834</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014982</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-11.74</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-0.9932</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -957,32 +1106,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>0.9924</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -995,32 +1144,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9121</t>
+          <t>0.9924</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1033,32 +1182,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）美元现汇 C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.5008</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1071,36 +1220,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>160416</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6246</t>
+          <t>0.0501</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1109,32 +1258,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160416</t>
+          <t>014982</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1147,36 +1296,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014982</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>-11.74</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>8.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0618</t>
+          <t>-0.9932</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,32 +1390,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1279,32 +1428,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.75</t>
+          <t>21.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1726</t>
+          <t>1.9121</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1317,32 +1466,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006680</t>
+          <t>004243</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1355,36 +1504,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004243</t>
+          <t>006680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.19</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3760</t>
+          <t>0.6246</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1449,32 +1674,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162719</t>
+          <t>006679</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3971</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1487,32 +1712,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006679</t>
+          <t>162719</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>14.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>1.1726</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1535,22 +1760,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1559</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1573,22 +1798,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>83.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1559</t>
+          <t>0.3760</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1601,6 +1826,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006679</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1998,7 +2431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2206,7 +2639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2526,212 +2959,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006679</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162719</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3891</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004243</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发道琼斯美国石油开发与生产指数证券投资基金(QDII-LOF) 美元现汇C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2065</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>